--- a/Report/K15T01_Team1_Weekly_Status_Report.xlsx
+++ b/Report/K15T01_Team1_Weekly_Status_Report.xlsx
@@ -4,13 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="19440" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="19440" windowHeight="7995" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="050211 - 050711" sheetId="1" r:id="rId1"/>
-    <sheet name="050911 - 051411" sheetId="2" r:id="rId2"/>
-    <sheet name="051611 - 052111" sheetId="3" r:id="rId3"/>
-    <sheet name="052311 - 052811" sheetId="4" r:id="rId4"/>
+    <sheet name="050211 - 050711" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="050911 - 051411" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="051611 - 052111" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="052311 - 052811" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="053011 - 060411" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="061311 - 061811" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="062011 - 062511" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="062711 - 070211" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="070411 - 070911" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="91">
   <si>
     <t>WEEKLY STATUS REPORT</t>
   </si>
@@ -139,10 +144,160 @@
     <t>Complete Usecase Description for "Danh mục sách"</t>
   </si>
   <si>
-    <t>Develop Sale function for Team Assignment 04</t>
-  </si>
-  <si>
-    <t>Design structure for Team Assignment 04</t>
+    <t>Description of the problem for database (Section 2)</t>
+  </si>
+  <si>
+    <t>Modeling ERD Model</t>
+  </si>
+  <si>
+    <t>Design ERD</t>
+  </si>
+  <si>
+    <t>Develop Team Assignment 04</t>
+  </si>
+  <si>
+    <t>Start MiniProject CS</t>
+  </si>
+  <si>
+    <t>Start TeamAssignment Testing</t>
+  </si>
+  <si>
+    <t>Translate "Frontier" section for MiniProject CS</t>
+  </si>
+  <si>
+    <t>Publish requirement on TFS</t>
+  </si>
+  <si>
+    <t>Translate "History and Page Repository" section for MiniProject CS</t>
+  </si>
+  <si>
+    <t>Translate "Fetching" section for MiniProject CS</t>
+  </si>
+  <si>
+    <t>Translate "Parsing" section for MiniProject CS</t>
+  </si>
+  <si>
+    <t>Translate "HTML tag tree" section for MiniProject CS</t>
+  </si>
+  <si>
+    <t>Translate "Multi-threaded crawler" section for MiniProject CS</t>
+  </si>
+  <si>
+    <t>Translate "Summary" and "Introduction" section</t>
+  </si>
+  <si>
+    <t>Update Test plan Document</t>
+  </si>
+  <si>
+    <t>Update Database Document</t>
+  </si>
+  <si>
+    <t>Modeling flowchart for Miniproject CS</t>
+  </si>
+  <si>
+    <t>Draw sequence diagram for MyCrawler2.java</t>
+  </si>
+  <si>
+    <t>Comment for MyCrawler2.java</t>
+  </si>
+  <si>
+    <t>Draw sequence diagram for MyCrawler1.java</t>
+  </si>
+  <si>
+    <t>Delay one week. Because last week team relax</t>
+  </si>
+  <si>
+    <t>Update "Danh mục" Module</t>
+  </si>
+  <si>
+    <t>Update "Quản lí hệ thống" Module</t>
+  </si>
+  <si>
+    <t>Update "Quản lí bán hàng" Module</t>
+  </si>
+  <si>
+    <t>Problems arise from update Module</t>
+  </si>
+  <si>
+    <t>"Quản lí hệ thống" and "Quản lí bán hàng" Module</t>
+  </si>
+  <si>
+    <t>Complete Document and Start develop for MiniProject</t>
+  </si>
+  <si>
+    <t>Complete assigned task for FinalProjet of CS</t>
+  </si>
+  <si>
+    <t>Problems about design database</t>
+  </si>
+  <si>
+    <t>Integrate interface</t>
+  </si>
+  <si>
+    <t>Design interface for WebCrawler</t>
+  </si>
+  <si>
+    <t>Supporter: Tri Nguyen and Nhut Chau</t>
+  </si>
+  <si>
+    <t>Modify Design database</t>
+  </si>
+  <si>
+    <t>Update Usecase description</t>
+  </si>
+  <si>
+    <t>Update Testcase</t>
+  </si>
+  <si>
+    <t>Develop source code for MiniProject and FinalProject</t>
+  </si>
+  <si>
+    <t>Modify database design</t>
+  </si>
+  <si>
+    <t>Modify Document</t>
+  </si>
+  <si>
+    <t>Develop Source code for MiniProject</t>
+  </si>
+  <si>
+    <t>Modify Source code for WebCrawler</t>
+  </si>
+  <si>
+    <t>Supporter: Nghia Nguyen</t>
+  </si>
+  <si>
+    <t>Update Testplan</t>
+  </si>
+  <si>
+    <t>Complete Source code for FinalProject CS</t>
+  </si>
+  <si>
+    <t>Hai Nguyen support comment</t>
+  </si>
+  <si>
+    <t>Complete Document for FinalProject CS</t>
+  </si>
+  <si>
+    <t>Complete Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Complete Algorithm Document</t>
+  </si>
+  <si>
+    <t>Test fucntion for application WebCrawler</t>
+  </si>
+  <si>
+    <t>Integrate document for MiniProject</t>
+  </si>
+  <si>
+    <t>Develop source code</t>
+  </si>
+  <si>
+    <t>Nghiem Doan support</t>
+  </si>
+  <si>
+    <t>Complete Document</t>
   </si>
 </sst>
 </file>
@@ -349,9 +504,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -360,6 +512,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -665,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D27" sqref="C27:D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1369,7 +1524,7 @@
   <dimension ref="B1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E20"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1383,12 +1538,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="25.5" customHeight="1">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="2:5" ht="15.75" customHeight="1">
       <c r="B2" s="4" t="s">
@@ -1411,12 +1566,12 @@
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
@@ -1485,12 +1640,12 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="2:5" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
@@ -1551,12 +1706,12 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
@@ -1591,12 +1746,12 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1">
       <c r="B26" s="2" t="s">
@@ -1684,11 +1839,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1699,19 +1854,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="25.5" customHeight="1">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="2:5" ht="15.75" customHeight="1">
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5">
-        <v>40688</v>
+        <v>40692</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
@@ -1727,12 +1882,12 @@
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
@@ -1765,19 +1920,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" ht="12.75">
+    <row r="8" spans="2:5" ht="17.25" customHeight="1">
       <c r="B8" s="8">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>40</v>
+      <c r="C8" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>19</v>
@@ -1788,22 +1943,36 @@
       <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" customHeight="1">
       <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" customHeight="1">
@@ -1843,12 +2012,12 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
@@ -1865,9 +2034,15 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" customHeight="1">
@@ -1901,12 +2076,12 @@
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" spans="2:5" ht="15.75" customHeight="1">
       <c r="B27" s="2" t="s">
@@ -1922,7 +2097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="12.75">
+    <row r="28" spans="2:5">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="8"/>
@@ -1941,12 +2116,12 @@
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="2:5" ht="15.75" customHeight="1">
       <c r="B32" s="2" t="s">
@@ -1963,14 +2138,22 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="8">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="9">
+        <v>2</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
@@ -2014,4 +2197,1788 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="25.5" customHeight="1">
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5">
+        <v>40699</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5" ht="17.25" customHeight="1">
+      <c r="B8" s="8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B10" s="8">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B11" s="8">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B12" s="16">
+        <v>7</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B13" s="17"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B14" s="8">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B19" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B27" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B32" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B34" s="8">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B35" s="9">
+        <v>2</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B36" s="3">
+        <v>3</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34:D39 D21:D26 D29:D31 D6:D18">
+      <formula1>"Huy Nguyen, Tri Nguyen, Nhut Chau, Nghia Nguyen, Hai Nguyen, Nghiem Doan, Team"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="25.5" customHeight="1">
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5">
+        <v>40712</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5" ht="17.25" customHeight="1">
+      <c r="B8" s="8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B10" s="8">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B11" s="8">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B12" s="8"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B25" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B33" s="9">
+        <v>2</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B34" s="3"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B17:E17"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D37 D19:D24 D27:D29 D6:D16">
+      <formula1>"Huy Nguyen, Tri Nguyen, Nhut Chau, Nghia Nguyen, Hai Nguyen, Nghiem Doan, Team"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="25.5" customHeight="1">
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5">
+        <v>40719</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="17.25" customHeight="1">
+      <c r="B8" s="8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B12" s="8"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B25" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B33" s="9">
+        <v>2</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B34" s="3">
+        <v>3</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B35" s="3">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B25:E25"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D37 D19:D24 D27:D29 D6:D16">
+      <formula1>"Huy Nguyen, Tri Nguyen, Nhut Chau, Nghia Nguyen, Hai Nguyen, Nghiem Doan, Team"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="19.5">
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5">
+        <v>40726</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="8"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B25:E25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="19.5">
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5">
+        <v>40733</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="8">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="8"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B30:E30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>